--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -67,121 +67,133 @@
     <t>best</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>christmas</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>christmas</t>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>wife</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
     <t>cake</t>
   </si>
   <si>
+    <t>husband</t>
+  </si>
+  <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
     <t>bread</t>
   </si>
   <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
     <t>ever</t>
   </si>
   <si>
-    <t>gift</t>
+    <t>nice</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>keeps</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>easy</t>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>works</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>make</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>coffee</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>bought</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>little</t>
   </si>
   <si>
     <t>one</t>
@@ -551,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,7 +574,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -620,13 +632,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3953488372093023</v>
+        <v>0.3410852713178295</v>
       </c>
       <c r="C3">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -638,19 +650,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3">
-        <v>0.946236559139785</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L3">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M3">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -662,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -670,13 +682,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3636363636363636</v>
+        <v>0.3232323232323233</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -688,19 +700,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0.8984375</v>
+        <v>0.90625</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -712,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -720,13 +732,13 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.868421052631579</v>
+        <v>0.8699690402476781</v>
       </c>
       <c r="L5">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M5">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -738,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,13 +758,13 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8405797101449275</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M6">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -764,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -772,13 +784,13 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.7826086956521739</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -790,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -798,13 +810,13 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>0.7575757575757576</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L8">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="M8">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -816,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -824,13 +836,13 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.7045454545454546</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -842,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -850,13 +862,13 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.6986301369863014</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="L10">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="M10">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -868,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -876,13 +888,13 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.6813559322033899</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L11">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -894,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>94</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -902,7 +914,7 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.676056338028169</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L12">
         <v>48</v>
@@ -920,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -928,13 +940,13 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.6753246753246753</v>
+        <v>0.64446227929374</v>
       </c>
       <c r="L13">
-        <v>52</v>
+        <v>803</v>
       </c>
       <c r="M13">
-        <v>52</v>
+        <v>803</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -946,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -954,13 +966,13 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6468699839486356</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L14">
-        <v>806</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>806</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -972,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>440</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -980,13 +992,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6114285714285714</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="L15">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="M15">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -998,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1006,13 +1018,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.59375</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L16">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M16">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1024,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1032,13 +1044,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.5882352941176471</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1050,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1058,13 +1070,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.5657894736842105</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L18">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1076,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1084,13 +1096,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.5428571428571428</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1102,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1110,13 +1122,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5384615384615384</v>
+        <v>0.546875</v>
       </c>
       <c r="L20">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1128,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1136,13 +1148,13 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5329341317365269</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L21">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1154,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>78</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1162,13 +1174,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5230769230769231</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1180,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1188,13 +1200,13 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5128205128205128</v>
+        <v>0.5394736842105263</v>
       </c>
       <c r="L23">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="M23">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1206,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1214,13 +1226,13 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.4939759036144578</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L24">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="M24">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1232,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1240,13 +1252,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.4861111111111111</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L25">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1258,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1266,13 +1278,13 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.48</v>
+        <v>0.4910179640718563</v>
       </c>
       <c r="L26">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="M26">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1284,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1292,13 +1304,13 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.3909774436090225</v>
+        <v>0.4786324786324787</v>
       </c>
       <c r="L27">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M27">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1310,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1318,13 +1330,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.3855421686746988</v>
+        <v>0.47</v>
       </c>
       <c r="L28">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="M28">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1336,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>102</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1344,13 +1356,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.3813229571984436</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="L29">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="M29">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1362,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>159</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1370,13 +1382,13 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.3504901960784313</v>
+        <v>0.3950617283950617</v>
       </c>
       <c r="L30">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1388,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>265</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1396,13 +1408,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.3157894736842105</v>
+        <v>0.3909774436090225</v>
       </c>
       <c r="L31">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M31">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1414,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1422,13 +1434,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.3095890410958904</v>
+        <v>0.3872549019607843</v>
       </c>
       <c r="L32">
-        <v>226</v>
+        <v>158</v>
       </c>
       <c r="M32">
-        <v>226</v>
+        <v>158</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1440,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>504</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1448,13 +1460,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.2949640287769784</v>
+        <v>0.3852140077821012</v>
       </c>
       <c r="L33">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="M33">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1466,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>98</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1474,13 +1486,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.2781456953642384</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="L34">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M34">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1492,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>109</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1500,13 +1512,13 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.2702702702702703</v>
+        <v>0.3136986301369863</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1518,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>81</v>
+        <v>501</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1526,13 +1538,13 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.2631578947368421</v>
+        <v>0.304635761589404</v>
       </c>
       <c r="L36">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="M36">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1544,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>154</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1552,13 +1564,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.232508073196986</v>
+        <v>0.3007518796992481</v>
       </c>
       <c r="L37">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="M37">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1570,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>713</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1578,13 +1590,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.2100313479623825</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L38">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="M38">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1596,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>252</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1604,13 +1616,13 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.1947019867549669</v>
+        <v>0.2465016146393972</v>
       </c>
       <c r="L39">
-        <v>147</v>
+        <v>229</v>
       </c>
       <c r="M39">
-        <v>147</v>
+        <v>229</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1622,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>608</v>
+        <v>700</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1630,13 +1642,13 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.1815856777493606</v>
+        <v>0.223021582733813</v>
       </c>
       <c r="L40">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="M40">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1648,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>640</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1656,25 +1668,25 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.1675675675675676</v>
+        <v>0.2185430463576159</v>
       </c>
       <c r="L41">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="M41">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="N41">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>308</v>
+        <v>590</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1682,13 +1694,13 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.1318181818181818</v>
+        <v>0.1943734015345268</v>
       </c>
       <c r="L42">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="M42">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1700,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>382</v>
+        <v>630</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1708,13 +1720,13 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.1143552311435523</v>
+        <v>0.1849529780564263</v>
       </c>
       <c r="L43">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="M43">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1726,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>364</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1734,13 +1746,13 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.1121718377088305</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L44">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="M44">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1752,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>372</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1760,25 +1772,25 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.1107011070110701</v>
+        <v>0.127027027027027</v>
       </c>
       <c r="L45">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="M45">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>241</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1786,13 +1798,13 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.1074561403508772</v>
+        <v>0.1217183770883055</v>
       </c>
       <c r="L46">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M46">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1804,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>407</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1812,13 +1824,13 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.1030927835051546</v>
+        <v>0.1180811808118081</v>
       </c>
       <c r="L47">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M47">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1830,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1838,13 +1850,13 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.06063432835820896</v>
+        <v>0.1162280701754386</v>
       </c>
       <c r="L48">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="M48">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1856,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>1007</v>
+        <v>403</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1864,25 +1876,25 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.054519368723099</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="L49">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M49">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N49">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>659</v>
+        <v>390</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1890,25 +1902,129 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.04502164502164503</v>
+        <v>0.1065292096219931</v>
       </c>
       <c r="L50">
+        <v>31</v>
+      </c>
+      <c r="M50">
+        <v>31</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K51">
+        <v>0.09245742092457421</v>
+      </c>
+      <c r="L51">
+        <v>38</v>
+      </c>
+      <c r="M51">
+        <v>38</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K52">
+        <v>0.07296538821328344</v>
+      </c>
+      <c r="L52">
+        <v>78</v>
+      </c>
+      <c r="M52">
+        <v>81</v>
+      </c>
+      <c r="N52">
+        <v>0.96</v>
+      </c>
+      <c r="O52">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K53">
+        <v>0.06312769010043041</v>
+      </c>
+      <c r="L53">
+        <v>44</v>
+      </c>
+      <c r="M53">
+        <v>45</v>
+      </c>
+      <c r="N53">
+        <v>0.98</v>
+      </c>
+      <c r="O53">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K54">
+        <v>0.04506065857885615</v>
+      </c>
+      <c r="L54">
         <v>52</v>
       </c>
-      <c r="M50">
-        <v>54</v>
-      </c>
-      <c r="N50">
-        <v>0.96</v>
-      </c>
-      <c r="O50">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P50" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q50">
-        <v>1103</v>
+      <c r="M54">
+        <v>55</v>
+      </c>
+      <c r="N54">
+        <v>0.95</v>
+      </c>
+      <c r="O54">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>1102</v>
       </c>
     </row>
   </sheetData>
